--- a/src/assets/promotions 2022 jan feb 2023 for rabee (1).xlsx
+++ b/src/assets/promotions 2022 jan feb 2023 for rabee (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\apparel-group-promotions\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF622577-E6A3-446C-A57D-3CFD3C5DDB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D48663-552F-451B-815D-9E4F7AFB03E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{83DF7BF3-B653-402A-A1AA-196EEA7785A1}"/>
   </bookViews>
@@ -19753,8 +19753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8BE889-2489-47D9-800C-DF8608BF3BEF}">
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19846,8 +19846,8 @@
         <v>import a101504 from './assets/employee_images/101504.jpg'</v>
       </c>
       <c r="L2" s="13" t="str">
-        <f>CONCATENATE( "{id:'",A2,"',name:'",B2,"',role_type:'",F2,"',new_role:'",E2,"',year:'",G2,"',month:'",G2,"',brand:'",D2,"',country:'",C2,"',image:",J2,"},")</f>
-        <v>{id:'101504',name:'Charles Karanja Njuguna ',role_type:'Support Function',new_role:'Audit Incharge',year:'2023',month:'2023',brand:'Audit',country:'UAE',image:a101504},</v>
+        <f>CONCATENATE( "{id:'",A2,"',name:'",B2,"',role_type:'",F2,"',new_role:'",E2,"',year:'",G2,"',month:'",H2,"',brand:'",D2,"',country:'",C2,"',image:",J2,"},")</f>
+        <v>{id:'101504',name:'Charles Karanja Njuguna ',role_type:'Support Function',new_role:'Audit Incharge',year:'2023',month:'April',brand:'Audit',country:'UAE',image:a101504},</v>
       </c>
       <c r="P2" s="13" t="str">
         <f>CONCATENATE( "{id:'",A2,"',name:'",B2,"',role_type:'",F2,"',new_role:'",E2,"',year:'",G2,"',month:'",H2,"',brand:'",D2,"',country:'",C2,"'},")</f>
@@ -19891,8 +19891,8 @@
         <v>import a101316 from './assets/employee_images/101316.jpg'</v>
       </c>
       <c r="L3" s="13" t="str">
-        <f t="shared" ref="L3:L66" si="2">CONCATENATE( "{id:'",A3,"',name:'",B3,"',role_type:'",F3,"',new_role:'",E3,"',year:'",G3,"',month:'",G3,"',brand:'",D3,"',country:'",C3,"',image:",J3,"},")</f>
-        <v>{id:'101316',name:'Muthukarthi Ganapathy ',role_type:'Support Function',new_role:'Executive - Inventory',year:'2023',month:'2023',brand:'Inventory',country:'UAE',image:a101316},</v>
+        <f t="shared" ref="L3:L66" si="2">CONCATENATE( "{id:'",A3,"',name:'",B3,"',role_type:'",F3,"',new_role:'",E3,"',year:'",G3,"',month:'",H3,"',brand:'",D3,"',country:'",C3,"',image:",J3,"},")</f>
+        <v>{id:'101316',name:'Muthukarthi Ganapathy ',role_type:'Support Function',new_role:'Executive - Inventory',year:'2023',month:'April',brand:'Inventory',country:'UAE',image:a101316},</v>
       </c>
       <c r="P3" s="13" t="str">
         <f t="shared" ref="P3:P64" si="3">CONCATENATE( "{id:'",A3,"',name:'",B3,"',role_type:'",F3,"',new_role:'",E3,"',year:'",G3,"',month:'",H3,"',brand:'",D3,"',country:'",C3,"'},")</f>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="L4" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'104897',name:'Nelson Awarinbi Achotia ',role_type:'Support Function',new_role:'Executive - Loss Prevention',year:'2023',month:'2023',brand:'Loss and Prevention',country:'UAE',image:a104897},</v>
+        <v>{id:'104897',name:'Nelson Awarinbi Achotia ',role_type:'Support Function',new_role:'Executive - Loss Prevention',year:'2023',month:'April',brand:'Loss and Prevention',country:'UAE',image:a104897},</v>
       </c>
       <c r="P4" s="13" t="str">
         <f t="shared" si="3"/>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="L5" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'101162',name:'Abdul Khader Bin Osman Maqavi',role_type:'Support Function',new_role:'Executive - Loss Prevention',year:'2023',month:'2023',brand:'Loss and Prevention',country:'UAE',image:a101162},</v>
+        <v>{id:'101162',name:'Abdul Khader Bin Osman Maqavi',role_type:'Support Function',new_role:'Executive - Loss Prevention',year:'2023',month:'April',brand:'Loss and Prevention',country:'UAE',image:a101162},</v>
       </c>
       <c r="P5" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105640',name:'Poonam Gidhwani',role_type:'Support Function',new_role:'Assistant Manager (Real Estate)',year:'2023',month:'2023',brand:'Real Estate',country:'UAE',image:a105640},</v>
+        <v>{id:'105640',name:'Poonam Gidhwani',role_type:'Support Function',new_role:'Assistant Manager (Real Estate)',year:'2023',month:'April',brand:'Real Estate',country:'UAE',image:a105640},</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="L7" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'124552',name:'Javeed Abbas',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Beverly Hills Polo Club',country:'UAE',image:a124552},</v>
+        <v>{id:'124552',name:'Javeed Abbas',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Beverly Hills Polo Club',country:'UAE',image:a124552},</v>
       </c>
       <c r="P7" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20117,7 +20117,7 @@
       </c>
       <c r="L8" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'104912',name:'Joharra Princess Briton Ros',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Levis',country:'UAE',image:a104912},</v>
+        <v>{id:'104912',name:'Joharra Princess Briton Ros',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Levis',country:'UAE',image:a104912},</v>
       </c>
       <c r="P8" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="L9" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105050',name:'Satra Alihu Idlana',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Levis',country:'UAE',image:a105050},</v>
+        <v>{id:'105050',name:'Satra Alihu Idlana',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Levis',country:'UAE',image:a105050},</v>
       </c>
       <c r="P9" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20207,7 +20207,7 @@
       </c>
       <c r="L10" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105071',name:'Anton Suresh Arul Raj',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Levis',country:'UAE',image:a105071},</v>
+        <v>{id:'105071',name:'Anton Suresh Arul Raj',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Levis',country:'UAE',image:a105071},</v>
       </c>
       <c r="P10" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="L11" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'103559',name:'Suman Majhee',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Levis',country:'UAE',image:a103559},</v>
+        <v>{id:'103559',name:'Suman Majhee',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Levis',country:'UAE',image:a103559},</v>
       </c>
       <c r="P11" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="L12" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'128350',name:'Khaled Mohamed Ibrahim Elsayed Mohamed',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Levis',country:'UAE',image:a128350},</v>
+        <v>{id:'128350',name:'Khaled Mohamed Ibrahim Elsayed Mohamed',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Levis',country:'UAE',image:a128350},</v>
       </c>
       <c r="P12" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="L13" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'122758',name:'Sunita Shrestha',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Levis',country:'UAE',image:a122758},</v>
+        <v>{id:'122758',name:'Sunita Shrestha',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Levis',country:'UAE',image:a122758},</v>
       </c>
       <c r="P13" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20387,7 +20387,7 @@
       </c>
       <c r="L14" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136428',name:'Farhan  Shakil',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'The Childrens Place',country:'UAE',image:a136428},</v>
+        <v>{id:'136428',name:'Farhan  Shakil',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'The Childrens Place',country:'UAE',image:a136428},</v>
       </c>
       <c r="P14" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="L15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'114017',name:'Kinley Wangmo',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'La Vie En Rose',country:'UAE',image:a114017},</v>
+        <v>{id:'114017',name:'Kinley Wangmo',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'La Vie En Rose',country:'UAE',image:a114017},</v>
       </c>
       <c r="P15" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20477,7 +20477,7 @@
       </c>
       <c r="L16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'122569',name:'Megha Rai',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'La Vie En Rose',country:'UAE',image:a122569},</v>
+        <v>{id:'122569',name:'Megha Rai',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'La Vie En Rose',country:'UAE',image:a122569},</v>
       </c>
       <c r="P16" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20522,7 +20522,7 @@
       </c>
       <c r="L17" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'124395',name:'Rosalie Yumul Dayrit',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'La Vie En Rose',country:'UAE',image:a124395},</v>
+        <v>{id:'124395',name:'Rosalie Yumul Dayrit',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'La Vie En Rose',country:'UAE',image:a124395},</v>
       </c>
       <c r="P17" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20567,7 +20567,7 @@
       </c>
       <c r="L18" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'101632',name:'Nirnoy Kumar Pradhan',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a101632},</v>
+        <v>{id:'101632',name:'Nirnoy Kumar Pradhan',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a101632},</v>
       </c>
       <c r="P18" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="L19" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'102329',name:'Shiva Panta',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Dune',country:'UAE',image:a102329},</v>
+        <v>{id:'102329',name:'Shiva Panta',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Dune',country:'UAE',image:a102329},</v>
       </c>
       <c r="P19" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="L20" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105568',name:'Yvette Fonju',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Dune',country:'UAE',image:a105568},</v>
+        <v>{id:'105568',name:'Yvette Fonju',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Dune',country:'UAE',image:a105568},</v>
       </c>
       <c r="P20" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="L21" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105696',name:'Phyu Phyu Win',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Naturalizer',country:'UAE',image:a105696},</v>
+        <v>{id:'105696',name:'Phyu Phyu Win',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Naturalizer',country:'UAE',image:a105696},</v>
       </c>
       <c r="P21" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20747,7 +20747,7 @@
       </c>
       <c r="L22" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'111975',name:'Rahim Ahmed Shah',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Dune',country:'UAE',image:a111975},</v>
+        <v>{id:'111975',name:'Rahim Ahmed Shah',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Dune',country:'UAE',image:a111975},</v>
       </c>
       <c r="P22" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20792,7 +20792,7 @@
       </c>
       <c r="L23" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'115510',name:'Mani Maharjan',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a115510},</v>
+        <v>{id:'115510',name:'Mani Maharjan',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a115510},</v>
       </c>
       <c r="P23" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20837,7 +20837,7 @@
       </c>
       <c r="L24" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'119129',name:'Karan Bhambhani',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Naturalizer',country:'UAE',image:a119129},</v>
+        <v>{id:'119129',name:'Karan Bhambhani',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Naturalizer',country:'UAE',image:a119129},</v>
       </c>
       <c r="P24" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20882,7 +20882,7 @@
       </c>
       <c r="L25" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'121306',name:'Manilyn Arata Brucelo',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Naturalizer',country:'UAE',image:a121306},</v>
+        <v>{id:'121306',name:'Manilyn Arata Brucelo',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Naturalizer',country:'UAE',image:a121306},</v>
       </c>
       <c r="P25" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="L26" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'123897',name:'Regine Subido Dimacali',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Naturalizer',country:'UAE',image:a123897},</v>
+        <v>{id:'123897',name:'Regine Subido Dimacali',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Naturalizer',country:'UAE',image:a123897},</v>
       </c>
       <c r="P26" s="13" t="str">
         <f t="shared" si="3"/>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="L27" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136296',name:'MOHAMMED AAMIR AHMED KHAN',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'TOMS',country:'UAE',image:a136296},</v>
+        <v>{id:'136296',name:'MOHAMMED AAMIR AHMED KHAN',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'TOMS',country:'UAE',image:a136296},</v>
       </c>
       <c r="P27" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="L28" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'137597',name:'Barman Bhagat',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a137597},</v>
+        <v>{id:'137597',name:'Barman Bhagat',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a137597},</v>
       </c>
       <c r="P28" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21062,7 +21062,7 @@
       </c>
       <c r="L29" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'138066',name:'Md Jahedul Islam',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Naturalizer',country:'UAE',image:a138066},</v>
+        <v>{id:'138066',name:'Md Jahedul Islam',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Naturalizer',country:'UAE',image:a138066},</v>
       </c>
       <c r="P29" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21107,7 +21107,7 @@
       </c>
       <c r="L30" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'138555',name:'Wajahat Mujtaba',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a138555},</v>
+        <v>{id:'138555',name:'Wajahat Mujtaba',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a138555},</v>
       </c>
       <c r="P30" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="L31" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'144006',name:'Kapil Pathak',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'CCC',country:'UAE',image:a144006},</v>
+        <v>{id:'144006',name:'Kapil Pathak',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'CCC',country:'UAE',image:a144006},</v>
       </c>
       <c r="P31" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21197,7 +21197,7 @@
       </c>
       <c r="L32" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'144124',name:'Aqib Hussain',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a144124},</v>
+        <v>{id:'144124',name:'Aqib Hussain',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a144124},</v>
       </c>
       <c r="P32" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21242,7 +21242,7 @@
       </c>
       <c r="L33" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'145098',name:'Akshay Kumar Padinhare Veedu',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a145098},</v>
+        <v>{id:'145098',name:'Akshay Kumar Padinhare Veedu',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a145098},</v>
       </c>
       <c r="P33" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21287,7 +21287,7 @@
       </c>
       <c r="L34" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'145099',name:'Muhammad Afaq Khan',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Nine West',country:'UAE',image:a145099},</v>
+        <v>{id:'145099',name:'Muhammad Afaq Khan',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Nine West',country:'UAE',image:a145099},</v>
       </c>
       <c r="P34" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="L35" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'102923',name:'Loretta Legara Santander',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a102923},</v>
+        <v>{id:'102923',name:'Loretta Legara Santander',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a102923},</v>
       </c>
       <c r="P35" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="L36" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'125600',name:'Rommel Flores Alpas',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a125600},</v>
+        <v>{id:'125600',name:'Rommel Flores Alpas',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a125600},</v>
       </c>
       <c r="P36" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21422,7 +21422,7 @@
       </c>
       <c r="L37" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'127974',name:'Ralph Irvin Uri Flores',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a127974},</v>
+        <v>{id:'127974',name:'Ralph Irvin Uri Flores',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a127974},</v>
       </c>
       <c r="P37" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="L38" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'128007',name:'Shahrukh Khan',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a128007},</v>
+        <v>{id:'128007',name:'Shahrukh Khan',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a128007},</v>
       </c>
       <c r="P38" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21512,7 +21512,7 @@
       </c>
       <c r="L39" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'128346',name:'Karuna Pathak Sapkota',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a128346},</v>
+        <v>{id:'128346',name:'Karuna Pathak Sapkota',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a128346},</v>
       </c>
       <c r="P39" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21557,7 +21557,7 @@
       </c>
       <c r="L40" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136759',name:'Irene Cidro',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a136759},</v>
+        <v>{id:'136759',name:'Irene Cidro',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a136759},</v>
       </c>
       <c r="P40" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="L41" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136760',name:'Benilyn Papasin',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a136760},</v>
+        <v>{id:'136760',name:'Benilyn Papasin',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a136760},</v>
       </c>
       <c r="P41" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21647,7 +21647,7 @@
       </c>
       <c r="L42" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136821',name:'Rhealien Regalado',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a136821},</v>
+        <v>{id:'136821',name:'Rhealien Regalado',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a136821},</v>
       </c>
       <c r="P42" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="L43" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136886',name:'Lerma Dalama',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a136886},</v>
+        <v>{id:'136886',name:'Lerma Dalama',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a136886},</v>
       </c>
       <c r="P43" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21737,7 +21737,7 @@
       </c>
       <c r="L44" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'137394',name:'Judy Ramos',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a137394},</v>
+        <v>{id:'137394',name:'Judy Ramos',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a137394},</v>
       </c>
       <c r="P44" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="L45" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'138860',name:'Carolyn Camingay',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a138860},</v>
+        <v>{id:'138860',name:'Carolyn Camingay',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a138860},</v>
       </c>
       <c r="P45" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21827,7 +21827,7 @@
       </c>
       <c r="L46" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'139043',name:'Roberto Pascual',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'HEMA',country:'UAE',image:a139043},</v>
+        <v>{id:'139043',name:'Roberto Pascual',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'HEMA',country:'UAE',image:a139043},</v>
       </c>
       <c r="P46" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="L47" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'100637',name:'Chitra Kumar Rai',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Dollar Plus',country:'UAE',image:a100637},</v>
+        <v>{id:'100637',name:'Chitra Kumar Rai',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Dollar Plus',country:'UAE',image:a100637},</v>
       </c>
       <c r="P47" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="L48" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105878',name:'Tanka Bahadur Sunuwar',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Dollar Plus',country:'UAE',image:a105878},</v>
+        <v>{id:'105878',name:'Tanka Bahadur Sunuwar',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Dollar Plus',country:'UAE',image:a105878},</v>
       </c>
       <c r="P48" s="13" t="str">
         <f t="shared" si="3"/>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="L49" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'124846',name:'Sugam Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Dollar Plus',country:'UAE',image:a124846},</v>
+        <v>{id:'124846',name:'Sugam Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Dollar Plus',country:'UAE',image:a124846},</v>
       </c>
       <c r="P49" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22007,7 +22007,7 @@
       </c>
       <c r="L50" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'128213',name:'Md Rafique .',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Dollar Plus',country:'UAE',image:a128213},</v>
+        <v>{id:'128213',name:'Md Rafique .',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Dollar Plus',country:'UAE',image:a128213},</v>
       </c>
       <c r="P50" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22052,7 +22052,7 @@
       </c>
       <c r="L51" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'128923',name:'Shiva Raj Bohora',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Dollar Plus',country:'UAE',image:a128923},</v>
+        <v>{id:'128923',name:'Shiva Raj Bohora',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Dollar Plus',country:'UAE',image:a128923},</v>
       </c>
       <c r="P51" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="L52" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'144611',name:'Bilal Jamil',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'R&amp;B Kids',country:'UAE',image:a144611},</v>
+        <v>{id:'144611',name:'Bilal Jamil',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'R&amp;B Kids',country:'UAE',image:a144611},</v>
       </c>
       <c r="P52" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="L53" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'104715',name:'Raju Lama',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Skechers',country:'UAE',image:a104715},</v>
+        <v>{id:'104715',name:'Raju Lama',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Skechers',country:'UAE',image:a104715},</v>
       </c>
       <c r="P53" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22187,7 +22187,7 @@
       </c>
       <c r="L54" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105981',name:'Junaid Imtiaz Kiyani',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Skechers',country:'UAE',image:a105981},</v>
+        <v>{id:'105981',name:'Junaid Imtiaz Kiyani',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Skechers',country:'UAE',image:a105981},</v>
       </c>
       <c r="P54" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="L55" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'145843',name:'Theja Lakmali Mudalige Dona',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Skechers',country:'UAE',image:a145843},</v>
+        <v>{id:'145843',name:'Theja Lakmali Mudalige Dona',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Skechers',country:'UAE',image:a145843},</v>
       </c>
       <c r="P55" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22277,7 +22277,7 @@
       </c>
       <c r="L56" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'112125',name:'Mayra Cherish Naranjo Adan',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Crocs',country:'UAE',image:a112125},</v>
+        <v>{id:'112125',name:'Mayra Cherish Naranjo Adan',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Crocs',country:'UAE',image:a112125},</v>
       </c>
       <c r="P56" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="L57" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'113294',name:'Dipesh Shrestha',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Crocs',country:'UAE',image:a113294},</v>
+        <v>{id:'113294',name:'Dipesh Shrestha',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Crocs',country:'UAE',image:a113294},</v>
       </c>
       <c r="P57" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22367,7 +22367,7 @@
       </c>
       <c r="L58" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'119073',name:'Sunil Chakkalakkal',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Crocs',country:'UAE',image:a119073},</v>
+        <v>{id:'119073',name:'Sunil Chakkalakkal',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Crocs',country:'UAE',image:a119073},</v>
       </c>
       <c r="P58" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22412,7 +22412,7 @@
       </c>
       <c r="L59" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'131372',name:'Ash Kumar Shrestha',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Crocs',country:'UAE',image:a131372},</v>
+        <v>{id:'131372',name:'Ash Kumar Shrestha',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Crocs',country:'UAE',image:a131372},</v>
       </c>
       <c r="P59" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22457,7 +22457,7 @@
       </c>
       <c r="L60" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'105511',name:'Youssera Daoudi',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Calvin Klein',country:'UAE',image:a105511},</v>
+        <v>{id:'105511',name:'Youssera Daoudi',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Calvin Klein',country:'UAE',image:a105511},</v>
       </c>
       <c r="P60" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="L61" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'124709',name:'Lovet Chapnda Ngeshuh',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Calvin Klein',country:'UAE',image:a124709},</v>
+        <v>{id:'124709',name:'Lovet Chapnda Ngeshuh',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Calvin Klein',country:'UAE',image:a124709},</v>
       </c>
       <c r="P61" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22547,7 +22547,7 @@
       </c>
       <c r="L62" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'125781',name:'Samjhana Thapa',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Calvin Klein',country:'UAE',image:a125781},</v>
+        <v>{id:'125781',name:'Samjhana Thapa',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Calvin Klein',country:'UAE',image:a125781},</v>
       </c>
       <c r="P62" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22592,7 +22592,7 @@
       </c>
       <c r="L63" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136256',name:'Abdel Fattah Elhadad',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Charles &amp; Keith',country:'UAE',image:a136256},</v>
+        <v>{id:'136256',name:'Abdel Fattah Elhadad',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Charles &amp; Keith',country:'UAE',image:a136256},</v>
       </c>
       <c r="P63" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22637,7 +22637,7 @@
       </c>
       <c r="L64" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'136409',name:'MENU  PRADHAN',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Charles &amp; Keith',country:'UAE',image:a136409},</v>
+        <v>{id:'136409',name:'MENU  PRADHAN',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Charles &amp; Keith',country:'UAE',image:a136409},</v>
       </c>
       <c r="P64" s="13" t="str">
         <f t="shared" si="3"/>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="L65" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'120247',name:'Joanne Marie  Palanog Lopez',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Charles &amp; Keith',country:'UAE',image:a120247},</v>
+        <v>{id:'120247',name:'Joanne Marie  Palanog Lopez',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Charles &amp; Keith',country:'UAE',image:a120247},</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22723,7 +22723,7 @@
       </c>
       <c r="L66" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>{id:'135860',name:'Mahmoud Ahmed',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Charles &amp; Keith',country:'UAE',image:a135860},</v>
+        <v>{id:'135860',name:'Mahmoud Ahmed',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Charles &amp; Keith',country:'UAE',image:a135860},</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22763,8 +22763,8 @@
         <v>import a136351 from './assets/employee_images/136351.jpg'</v>
       </c>
       <c r="L67" s="13" t="str">
-        <f t="shared" ref="L67:L130" si="6">CONCATENATE( "{id:'",A67,"',name:'",B67,"',role_type:'",F67,"',new_role:'",E67,"',year:'",G67,"',month:'",G67,"',brand:'",D67,"',country:'",C67,"',image:",J67,"},")</f>
-        <v>{id:'136351',name:'Mohammad Khoja',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Charles &amp; Keith',country:'UAE',image:a136351},</v>
+        <f t="shared" ref="L67:L130" si="6">CONCATENATE( "{id:'",A67,"',name:'",B67,"',role_type:'",F67,"',new_role:'",E67,"',year:'",G67,"',month:'",H67,"',brand:'",D67,"',country:'",C67,"',image:",J67,"},")</f>
+        <v>{id:'136351',name:'Mohammad Khoja',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Charles &amp; Keith',country:'UAE',image:a136351},</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="L68" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'124060',name:'Shaira Norelly Novia Jaravata',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Tommy Hilfiger',country:'UAE',image:a124060},</v>
+        <v>{id:'124060',name:'Shaira Norelly Novia Jaravata',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Tommy Hilfiger',country:'UAE',image:a124060},</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22846,7 +22846,7 @@
       </c>
       <c r="L69" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'121027',name:'Jay Rosel Santiago',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Tommy Hilfiger',country:'UAE',image:a121027},</v>
+        <v>{id:'121027',name:'Jay Rosel Santiago',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Tommy Hilfiger',country:'UAE',image:a121027},</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="L70" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'104453',name:'Bibek Budha Magar',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Tommy Hilfiger',country:'UAE',image:a104453},</v>
+        <v>{id:'104453',name:'Bibek Budha Magar',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Tommy Hilfiger',country:'UAE',image:a104453},</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="L71" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'121109',name:'Enamul Hasan Mohammed Ismail Shabandri',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Tommy Hilfiger',country:'UAE',image:a121109},</v>
+        <v>{id:'121109',name:'Enamul Hasan Mohammed Ismail Shabandri',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Tommy Hilfiger',country:'UAE',image:a121109},</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22969,7 +22969,7 @@
       </c>
       <c r="L72" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'128863',name:'Bibek Chhantyal',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Tommy Hilfiger',country:'UAE',image:a128863},</v>
+        <v>{id:'128863',name:'Bibek Chhantyal',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Tommy Hilfiger',country:'UAE',image:a128863},</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23010,7 +23010,7 @@
       </c>
       <c r="L73" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'136757',name:'MOHAMED TAHA ',role_type:'Sales Front Office',new_role:'Senior Store Manager',year:'2023',month:'2023',brand:'Tommy Hilfiger',country:'UAE',image:a136757},</v>
+        <v>{id:'136757',name:'MOHAMED TAHA ',role_type:'Sales Front Office',new_role:'Senior Store Manager',year:'2023',month:'April',brand:'Tommy Hilfiger',country:'UAE',image:a136757},</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="L74" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'102562',name:'Mohamed Imraz Mohamed Imthiyaz',role_type:'Sales Front Office',new_role:'assistant store manager ',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a102562},</v>
+        <v>{id:'102562',name:'Mohamed Imraz Mohamed Imthiyaz',role_type:'Sales Front Office',new_role:'assistant store manager ',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a102562},</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23092,7 +23092,7 @@
       </c>
       <c r="L75" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'103929',name:'Sunil Thara',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a103929},</v>
+        <v>{id:'103929',name:'Sunil Thara',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a103929},</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="L76" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'115995',name:'Sushil Neupane',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a115995},</v>
+        <v>{id:'115995',name:'Sushil Neupane',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a115995},</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23174,7 +23174,7 @@
       </c>
       <c r="L77" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'124533',name:'Dawa Tamang',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a124533},</v>
+        <v>{id:'124533',name:'Dawa Tamang',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a124533},</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23215,7 +23215,7 @@
       </c>
       <c r="L78" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'132427',name:'Hari Prasath Rajangam',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a132427},</v>
+        <v>{id:'132427',name:'Hari Prasath Rajangam',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a132427},</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="L79" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'137350',name:'Suraj Neupane',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a137350},</v>
+        <v>{id:'137350',name:'Suraj Neupane',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a137350},</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23297,7 +23297,7 @@
       </c>
       <c r="L80" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138191',name:'Bhoomesh Chippa',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a138191},</v>
+        <v>{id:'138191',name:'Bhoomesh Chippa',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a138191},</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23338,7 +23338,7 @@
       </c>
       <c r="L81" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138190',name:'Sanjiv Sunari Magar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a138190},</v>
+        <v>{id:'138190',name:'Sanjiv Sunari Magar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a138190},</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23379,7 +23379,7 @@
       </c>
       <c r="L82" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138173',name:'Tamang Subash',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a138173},</v>
+        <v>{id:'138173',name:'Tamang Subash',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a138173},</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23420,7 +23420,7 @@
       </c>
       <c r="L83" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'137924',name:'Sagar Gurung',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a137924},</v>
+        <v>{id:'137924',name:'Sagar Gurung',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a137924},</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23461,7 +23461,7 @@
       </c>
       <c r="L84" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'139195',name:'Muhammad Nabeel',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a139195},</v>
+        <v>{id:'139195',name:'Muhammad Nabeel',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a139195},</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="L85" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'107708',name:'Anjita Ghimire',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a107708},</v>
+        <v>{id:'107708',name:'Anjita Ghimire',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a107708},</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23543,7 +23543,7 @@
       </c>
       <c r="L86" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'145342',name:'Muhammad Saqlain',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'LC Waikiki',country:'UAE',image:a145342},</v>
+        <v>{id:'145342',name:'Muhammad Saqlain',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'LC Waikiki',country:'UAE',image:a145342},</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23584,7 +23584,7 @@
       </c>
       <c r="L87" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'102988',name:'Irene Nalubega',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'New Yorker',country:'UAE',image:a102988},</v>
+        <v>{id:'102988',name:'Irene Nalubega',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'New Yorker',country:'UAE',image:a102988},</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23625,7 +23625,7 @@
       </c>
       <c r="L88" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'105537',name:'Nashim Nakasujja',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'New Yorker',country:'UAE',image:a105537},</v>
+        <v>{id:'105537',name:'Nashim Nakasujja',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'New Yorker',country:'UAE',image:a105537},</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23666,7 +23666,7 @@
       </c>
       <c r="L89" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'105996',name:'Asif Sadiqque',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'New Yorker',country:'UAE',image:a105996},</v>
+        <v>{id:'105996',name:'Asif Sadiqque',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'New Yorker',country:'UAE',image:a105996},</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23707,7 +23707,7 @@
       </c>
       <c r="L90" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'125635',name:'Sunil Kapali',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'2023',brand:'New Yorker',country:'UAE',image:a125635},</v>
+        <v>{id:'125635',name:'Sunil Kapali',role_type:'Sales Front Office',new_role:'Department Manager',year:'2023',month:'April',brand:'New Yorker',country:'UAE',image:a125635},</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="L91" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'142375',name:'Sabin Shahi',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'New Yorker',country:'UAE',image:a142375},</v>
+        <v>{id:'142375',name:'Sabin Shahi',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'New Yorker',country:'UAE',image:a142375},</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23789,7 +23789,7 @@
       </c>
       <c r="L92" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'102922',name:'Roselyn Sison Perez',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a102922},</v>
+        <v>{id:'102922',name:'Roselyn Sison Perez',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a102922},</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23830,7 +23830,7 @@
       </c>
       <c r="L93" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'106289',name:'Krishna Malla',role_type:'Sales Front Office',new_role:'Senior Store Manager',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a106289},</v>
+        <v>{id:'106289',name:'Krishna Malla',role_type:'Sales Front Office',new_role:'Senior Store Manager',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a106289},</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23871,7 +23871,7 @@
       </c>
       <c r="L94" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'120414',name:'Christine Mendoza Chua',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a120414},</v>
+        <v>{id:'120414',name:'Christine Mendoza Chua',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a120414},</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="L95" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'127702',name:'Ajay Kumar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a127702},</v>
+        <v>{id:'127702',name:'Ajay Kumar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a127702},</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23953,7 +23953,7 @@
       </c>
       <c r="L96" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'128395',name:'Ranie Velasco Lagmay',role_type:'Sales Front Office',new_role:'Area Visual Merchandiser',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a128395},</v>
+        <v>{id:'128395',name:'Ranie Velasco Lagmay',role_type:'Sales Front Office',new_role:'Area Visual Merchandiser',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a128395},</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="L97" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'129080',name:'Jerlyn Micabalo Egos',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a129080},</v>
+        <v>{id:'129080',name:'Jerlyn Micabalo Egos',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a129080},</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24035,7 +24035,7 @@
       </c>
       <c r="L98" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'129072',name:'Bernadeth Baldazo Domingo',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a129072},</v>
+        <v>{id:'129072',name:'Bernadeth Baldazo Domingo',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a129072},</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="L99" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'131840',name:'Raman Kumar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a131840},</v>
+        <v>{id:'131840',name:'Raman Kumar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a131840},</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="L100" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'136086',name:'Reymer Purificacion De Manuel',role_type:'Sales Front Office',new_role:'Area Visual Merchandiser',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a136086},</v>
+        <v>{id:'136086',name:'Reymer Purificacion De Manuel',role_type:'Sales Front Office',new_role:'Area Visual Merchandiser',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a136086},</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24158,7 +24158,7 @@
       </c>
       <c r="L101" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138089',name:'Ashma Poudel',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a138089},</v>
+        <v>{id:'138089',name:'Ashma Poudel',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a138089},</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="L102" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138088',name:'Bindu Nyaupane',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a138088},</v>
+        <v>{id:'138088',name:'Bindu Nyaupane',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a138088},</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24240,7 +24240,7 @@
       </c>
       <c r="L103" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138171',name:'Abishek Dewan',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a138171},</v>
+        <v>{id:'138171',name:'Abishek Dewan',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a138171},</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="L104" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138134',name:'Gurpreet Gurpreet',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a138134},</v>
+        <v>{id:'138134',name:'Gurpreet Gurpreet',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a138134},</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24322,7 +24322,7 @@
       </c>
       <c r="L105" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'138941',name:'Sariputra Sariputra',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a138941},</v>
+        <v>{id:'138941',name:'Sariputra Sariputra',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a138941},</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="L106" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'142063',name:'Gaurav Sharda',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a142063},</v>
+        <v>{id:'142063',name:'Gaurav Sharda',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a142063},</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24404,7 +24404,7 @@
       </c>
       <c r="L107" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'129292',name:'Amit Saini',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a129292},</v>
+        <v>{id:'129292',name:'Amit Saini',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a129292},</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="L108" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'129916',name:'Prabhjit .',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a129916},</v>
+        <v>{id:'129916',name:'Prabhjit .',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a129916},</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="L109" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'130710',name:'Rupesh Kumar Saini',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a130710},</v>
+        <v>{id:'130710',name:'Rupesh Kumar Saini',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a130710},</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="L110" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'131241',name:'Parminder Kumar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Brand Bazaar',country:'UAE',image:a131241},</v>
+        <v>{id:'131241',name:'Parminder Kumar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Brand Bazaar',country:'UAE',image:a131241},</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="L111" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'106147',name:'Kushal Gurung',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a106147},</v>
+        <v>{id:'106147',name:'Kushal Gurung',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a106147},</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24609,7 +24609,7 @@
       </c>
       <c r="L112" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'114113',name:'Christine Joy Requiron Caban',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a114113},</v>
+        <v>{id:'114113',name:'Christine Joy Requiron Caban',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a114113},</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="L113" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'115327',name:'Rajesh Limbu',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a115327},</v>
+        <v>{id:'115327',name:'Rajesh Limbu',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a115327},</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="L114" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'116846',name:'Sumira Adhikari',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a116846},</v>
+        <v>{id:'116846',name:'Sumira Adhikari',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a116846},</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="L115" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'121156',name:'Greshe Redondo Basilio',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a121156},</v>
+        <v>{id:'121156',name:'Greshe Redondo Basilio',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a121156},</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="L116" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'123344',name:'Mohamed Darwish Amin Elkarrai',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a123344},</v>
+        <v>{id:'123344',name:'Mohamed Darwish Amin Elkarrai',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a123344},</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="L117" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'116917',name:'Ahmed Abed  Mahmoud Ahmed',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Birkenstock',country:'UAE',image:a116917},</v>
+        <v>{id:'116917',name:'Ahmed Abed  Mahmoud Ahmed',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Birkenstock',country:'UAE',image:a116917},</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="L118" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'106156',name:'Rajan Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a106156},</v>
+        <v>{id:'106156',name:'Rajan Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a106156},</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="L119" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'121350',name:'Shaurav Gurung',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a121350},</v>
+        <v>{id:'121350',name:'Shaurav Gurung',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a121350},</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="L120" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'122243',name:'Hamza Javed',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athlete Foot',country:'UAE',image:a122243},</v>
+        <v>{id:'122243',name:'Hamza Javed',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athlete Foot',country:'UAE',image:a122243},</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="L121" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'102413',name:'Suny Sat Pal',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a102413},</v>
+        <v>{id:'102413',name:'Suny Sat Pal',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a102413},</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="L122" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'135656',name:'Saroj Giri',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a135656},</v>
+        <v>{id:'135656',name:'Saroj Giri',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a135656},</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25060,7 +25060,7 @@
       </c>
       <c r="L123" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'127222',name:'Arjun Ghimire',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a127222},</v>
+        <v>{id:'127222',name:'Arjun Ghimire',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a127222},</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25101,7 +25101,7 @@
       </c>
       <c r="L124" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'124544',name:'Hafiz Adil Badar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a124544},</v>
+        <v>{id:'124544',name:'Hafiz Adil Badar',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a124544},</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25142,7 +25142,7 @@
       </c>
       <c r="L125" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'136698',name:'Tandeka Nelson',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a136698},</v>
+        <v>{id:'136698',name:'Tandeka Nelson',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a136698},</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="L126" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'106116',name:'Asif Hussain Shah',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'The Athletes Co',country:'UAE',image:a106116},</v>
+        <v>{id:'106116',name:'Asif Hussain Shah',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'The Athletes Co',country:'UAE',image:a106116},</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25224,7 +25224,7 @@
       </c>
       <c r="L127" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'104342',name:'Akramjon Kodirov',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a104342},</v>
+        <v>{id:'104342',name:'Akramjon Kodirov',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a104342},</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25265,7 +25265,7 @@
       </c>
       <c r="L128" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'106966',name:'Hirut Wolde Eshetu',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a106966},</v>
+        <v>{id:'106966',name:'Hirut Wolde Eshetu',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a106966},</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="L129" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'102678',name:'Mekh Lala Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a102678},</v>
+        <v>{id:'102678',name:'Mekh Lala Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a102678},</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25347,7 +25347,7 @@
       </c>
       <c r="L130" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>{id:'122027',name:'Santosh Giri',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a122027},</v>
+        <v>{id:'122027',name:'Santosh Giri',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a122027},</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25387,8 +25387,8 @@
         <v>import a122182 from './assets/employee_images/122182.jpg'</v>
       </c>
       <c r="L131" s="13" t="str">
-        <f t="shared" ref="L131:L150" si="9">CONCATENATE( "{id:'",A131,"',name:'",B131,"',role_type:'",F131,"',new_role:'",E131,"',year:'",G131,"',month:'",G131,"',brand:'",D131,"',country:'",C131,"',image:",J131,"},")</f>
-        <v>{id:'122182',name:'Albert Fynn',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a122182},</v>
+        <f t="shared" ref="L131:L150" si="9">CONCATENATE( "{id:'",A131,"',name:'",B131,"',role_type:'",F131,"',new_role:'",E131,"',year:'",G131,"',month:'",H131,"',brand:'",D131,"',country:'",C131,"',image:",J131,"},")</f>
+        <v>{id:'122182',name:'Albert Fynn',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a122182},</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25429,7 +25429,7 @@
       </c>
       <c r="L132" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'123350',name:'Nikesh Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a123350},</v>
+        <v>{id:'123350',name:'Nikesh Tamang',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a123350},</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25470,7 +25470,7 @@
       </c>
       <c r="L133" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'123500',name:'Dennis Brian Ntambi',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a123500},</v>
+        <v>{id:'123500',name:'Dennis Brian Ntambi',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a123500},</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="L134" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'124786',name:'Sandesh Malla',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a124786},</v>
+        <v>{id:'124786',name:'Sandesh Malla',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a124786},</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25552,7 +25552,7 @@
       </c>
       <c r="L135" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'129101',name:'William Tumwesigye',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a129101},</v>
+        <v>{id:'129101',name:'William Tumwesigye',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a129101},</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="L136" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'131492',name:'Jonathan Ntege',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a131492},</v>
+        <v>{id:'131492',name:'Jonathan Ntege',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a131492},</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25634,7 +25634,7 @@
       </c>
       <c r="L137" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'133275',name:'Abdulrahman Mohammed Ahmed Ali Al Zouba',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a133275},</v>
+        <v>{id:'133275',name:'Abdulrahman Mohammed Ahmed Ali Al Zouba',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a133275},</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="L138" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'139822',name:'Suman Dulal',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a139822},</v>
+        <v>{id:'139822',name:'Suman Dulal',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a139822},</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="L139" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'102981',name:'Rehema Nakaliisa',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'ALDO',country:'UAE',image:a102981},</v>
+        <v>{id:'102981',name:'Rehema Nakaliisa',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'ALDO',country:'UAE',image:a102981},</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25757,7 +25757,7 @@
       </c>
       <c r="L140" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'103129',name:'Helen Getachew Haile',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'ALDO Accessories',country:'UAE',image:a103129},</v>
+        <v>{id:'103129',name:'Helen Getachew Haile',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'ALDO Accessories',country:'UAE',image:a103129},</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25798,7 +25798,7 @@
       </c>
       <c r="L141" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'103590',name:'Calista Enigah Biyeh',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'ALDO Accessories',country:'UAE',image:a103590},</v>
+        <v>{id:'103590',name:'Calista Enigah Biyeh',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'ALDO Accessories',country:'UAE',image:a103590},</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="L142" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'103713',name:'Nathalie Yombi Nfongyele',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'ALDO Accessories',country:'UAE',image:a103713},</v>
+        <v>{id:'103713',name:'Nathalie Yombi Nfongyele',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'ALDO Accessories',country:'UAE',image:a103713},</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25880,7 +25880,7 @@
       </c>
       <c r="L143" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'105906',name:'Salome Mamvura',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'ALDO Accessories',country:'UAE',image:a105906},</v>
+        <v>{id:'105906',name:'Salome Mamvura',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'ALDO Accessories',country:'UAE',image:a105906},</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25921,7 +25921,7 @@
       </c>
       <c r="L144" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'131353',name:'Sweetcel De Chavez Jusi',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'ALDO Accessories',country:'UAE',image:a131353},</v>
+        <v>{id:'131353',name:'Sweetcel De Chavez Jusi',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'ALDO Accessories',country:'UAE',image:a131353},</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25962,7 +25962,7 @@
       </c>
       <c r="L145" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'100438',name:'Ananta Rai',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'2023',brand:'Call It Spring',country:'UAE',image:a100438},</v>
+        <v>{id:'100438',name:'Ananta Rai',role_type:'Sales Front Office',new_role:'Store Manager',year:'2023',month:'April',brand:'Call It Spring',country:'UAE',image:a100438},</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="L146" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'100735',name:'Aisah Abdul Desraj',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Call It Spring',country:'UAE',image:a100735},</v>
+        <v>{id:'100735',name:'Aisah Abdul Desraj',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Call It Spring',country:'UAE',image:a100735},</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26044,7 +26044,7 @@
       </c>
       <c r="L147" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'103085',name:'Cinderella Richard Rechard',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Call It Spring',country:'UAE',image:a103085},</v>
+        <v>{id:'103085',name:'Cinderella Richard Rechard',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Call It Spring',country:'UAE',image:a103085},</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="L148" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'104804',name:'Mohamed Azardeen Mohamed Maharoof',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'2023',brand:'Call It Spring',country:'UAE',image:a104804},</v>
+        <v>{id:'104804',name:'Mohamed Azardeen Mohamed Maharoof',role_type:'Sales Front Office',new_role:'Senior Sales Associate',year:'2023',month:'April',brand:'Call It Spring',country:'UAE',image:a104804},</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26126,7 +26126,7 @@
       </c>
       <c r="L149" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'112485',name:'Muhammad Gulfam  Qayyoom',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'2023',brand:'Call It Spring',country:'UAE',image:a112485},</v>
+        <v>{id:'112485',name:'Muhammad Gulfam  Qayyoom',role_type:'Sales Front Office',new_role:'Sales Associate',year:'2023',month:'April',brand:'Call It Spring',country:'UAE',image:a112485},</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26167,7 +26167,7 @@
       </c>
       <c r="L150" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>{id:'116489',name:'Ananda Paulina Laslani',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'2023',brand:'Call It Spring',country:'UAE',image:a116489},</v>
+        <v>{id:'116489',name:'Ananda Paulina Laslani',role_type:'Sales Front Office',new_role:'Assistant Store Manager',year:'2023',month:'April',brand:'Call It Spring',country:'UAE',image:a116489},</v>
       </c>
     </row>
   </sheetData>
